--- a/paper/大论文/2016.01.22实验总结.xlsx
+++ b/paper/大论文/2016.01.22实验总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="7500" windowHeight="4956"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="7500" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="全面的精确的算法" sheetId="1" r:id="rId1"/>
@@ -790,6 +790,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,12 +806,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,11 +1047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48714752"/>
-        <c:axId val="45590784"/>
+        <c:axId val="93308416"/>
+        <c:axId val="157282816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48714752"/>
+        <c:axId val="93308416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45590784"/>
+        <c:crossAx val="157282816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1068,7 +1068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45590784"/>
+        <c:axId val="157282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,13 +1079,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48714752"/>
+        <c:crossAx val="93308416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1319,11 +1320,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42892800"/>
-        <c:axId val="45593088"/>
+        <c:axId val="110127104"/>
+        <c:axId val="162693696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42892800"/>
+        <c:axId val="110127104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45593088"/>
+        <c:crossAx val="162693696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45593088"/>
+        <c:axId val="162693696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,13 +1352,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42892800"/>
+        <c:crossAx val="110127104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1528,11 +1530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48715776"/>
-        <c:axId val="45595392"/>
+        <c:axId val="111209472"/>
+        <c:axId val="162698880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48715776"/>
+        <c:axId val="111209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45595392"/>
+        <c:crossAx val="162698880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1549,7 +1551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45595392"/>
+        <c:axId val="162698880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,13 +1562,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48715776"/>
+        <c:crossAx val="111209472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1737,11 +1740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48717312"/>
-        <c:axId val="101545600"/>
+        <c:axId val="113500160"/>
+        <c:axId val="163831808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48717312"/>
+        <c:axId val="113500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101545600"/>
+        <c:crossAx val="163831808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +1761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101545600"/>
+        <c:axId val="163831808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,13 +1772,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48717312"/>
+        <c:crossAx val="113500160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2072,11 +2076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61235712"/>
-        <c:axId val="105835904"/>
+        <c:axId val="113502720"/>
+        <c:axId val="163834112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61235712"/>
+        <c:axId val="113502720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105835904"/>
+        <c:crossAx val="163834112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2093,7 +2097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105835904"/>
+        <c:axId val="163834112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,13 +2108,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61235712"/>
+        <c:crossAx val="113502720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2281,11 +2286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61236736"/>
-        <c:axId val="105839360"/>
+        <c:axId val="115057664"/>
+        <c:axId val="163836416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61236736"/>
+        <c:axId val="115057664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105839360"/>
+        <c:crossAx val="163836416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +2307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105839360"/>
+        <c:axId val="163836416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,13 +2318,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61236736"/>
+        <c:crossAx val="115057664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2535,11 +2541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61237248"/>
-        <c:axId val="117022016"/>
+        <c:axId val="115059200"/>
+        <c:axId val="163839296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61237248"/>
+        <c:axId val="115059200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117022016"/>
+        <c:crossAx val="163839296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2556,7 +2562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117022016"/>
+        <c:axId val="163839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61237248"/>
+        <c:crossAx val="115059200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2732,11 +2738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61238272"/>
-        <c:axId val="144099008"/>
+        <c:axId val="115249152"/>
+        <c:axId val="165095104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61238272"/>
+        <c:axId val="115249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144099008"/>
+        <c:crossAx val="165095104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2753,7 +2759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144099008"/>
+        <c:axId val="165095104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61238272"/>
+        <c:crossAx val="115249152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,38 +3330,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="R22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="60" customWidth="1"/>
     <col min="15" max="15" width="13" style="60" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="60" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" style="60" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="60" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="60" customWidth="1"/>
     <col min="18" max="18" width="20" style="60" customWidth="1"/>
-    <col min="19" max="22" width="8.88671875" style="60" customWidth="1"/>
+    <col min="19" max="22" width="8.875" style="60" customWidth="1"/>
     <col min="24" max="25" width="9" style="60"/>
     <col min="27" max="27" width="11" style="60" customWidth="1"/>
-    <col min="28" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" style="60" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" style="60" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" customWidth="1"/>
+    <col min="28" max="28" width="10.625" customWidth="1"/>
+    <col min="29" max="29" width="10.75" style="60" customWidth="1"/>
+    <col min="30" max="30" width="10.625" customWidth="1"/>
+    <col min="31" max="31" width="10.25" style="60" customWidth="1"/>
+    <col min="32" max="32" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G1" s="72" t="s">
         <v>40</v>
       </c>
@@ -3367,27 +3373,27 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="131" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="131" t="s">
+      <c r="H2" s="134"/>
+      <c r="I2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="129" t="s">
+      <c r="J2" s="134"/>
+      <c r="K2" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="130"/>
+      <c r="L2" s="132"/>
       <c r="P2" s="60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
@@ -3453,7 +3459,7 @@
       </c>
       <c r="V3" s="80"/>
     </row>
-    <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="V4" s="82"/>
     </row>
-    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3591,7 @@
       </c>
       <c r="V5" s="82"/>
     </row>
-    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3654,7 +3660,7 @@
       <c r="X6" s="61"/>
       <c r="Y6" s="61"/>
     </row>
-    <row r="7" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -3723,7 +3729,7 @@
       <c r="X7" s="61"/>
       <c r="Y7" s="61"/>
     </row>
-    <row r="8" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3792,7 +3798,7 @@
       <c r="X8" s="61"/>
       <c r="Y8" s="61"/>
     </row>
-    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +3863,7 @@
       <c r="X9" s="61"/>
       <c r="Y9" s="61"/>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3882,7 +3888,7 @@
       <c r="X10" s="61"/>
       <c r="Y10" s="61"/>
     </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3910,7 +3916,7 @@
       <c r="AC11" s="60"/>
       <c r="AE11" s="60"/>
     </row>
-    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G12" s="72" t="s">
         <v>41</v>
       </c>
@@ -3922,24 +3928,24 @@
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="133" t="s">
+      <c r="E13" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="134"/>
-      <c r="G13" s="131" t="s">
+      <c r="F13" s="130"/>
+      <c r="G13" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="131" t="s">
+      <c r="H13" s="134"/>
+      <c r="I13" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="129" t="s">
+      <c r="J13" s="134"/>
+      <c r="K13" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="130"/>
-    </row>
-    <row r="14" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="132"/>
+    </row>
+    <row r="14" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
         <v>1</v>
       </c>
@@ -4004,7 +4010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
         <v>16</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
         <v>17</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W21" s="85" t="s">
         <v>40</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W22" s="85" t="s">
         <v>19</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>6.7340067340067311E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G23" s="72" t="s">
         <v>42</v>
       </c>
@@ -4439,22 +4445,22 @@
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="133" t="s">
+      <c r="E24" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="134"/>
-      <c r="G24" s="131" t="s">
+      <c r="F24" s="130"/>
+      <c r="G24" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="132"/>
-      <c r="I24" s="131" t="s">
+      <c r="H24" s="134"/>
+      <c r="I24" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="132"/>
-      <c r="K24" s="129" t="s">
+      <c r="J24" s="134"/>
+      <c r="K24" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="130"/>
+      <c r="L24" s="132"/>
       <c r="W24" s="85" t="s">
         <v>43</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>6.7422969187675069E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="35" t="s">
         <v>1</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>9.9735449735449747E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
         <v>21</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +4680,7 @@
       </c>
       <c r="Y27" s="63"/>
     </row>
-    <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="33" t="s">
         <v>23</v>
       </c>
@@ -4746,7 +4752,7 @@
       </c>
       <c r="Y28" s="63"/>
     </row>
-    <row r="29" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="33" t="s">
         <v>24</v>
       </c>
@@ -4818,7 +4824,7 @@
       </c>
       <c r="Y29" s="63"/>
     </row>
-    <row r="30" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34" t="s">
         <v>25</v>
       </c>
@@ -4890,7 +4896,7 @@
       </c>
       <c r="Y30" s="63"/>
     </row>
-    <row r="31" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>13</v>
       </c>
@@ -4957,7 +4963,7 @@
       </c>
       <c r="Y31" s="63"/>
     </row>
-    <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W32" s="85" t="s">
         <v>44</v>
       </c>
@@ -4966,8 +4972,8 @@
       </c>
       <c r="Y32" s="63"/>
     </row>
-    <row r="33" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="72" t="s">
         <v>43</v>
       </c>
@@ -4979,24 +4985,24 @@
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="133" t="s">
+      <c r="E35" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="134"/>
-      <c r="G35" s="131" t="s">
+      <c r="F35" s="130"/>
+      <c r="G35" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="132"/>
-      <c r="I35" s="131" t="s">
+      <c r="H35" s="134"/>
+      <c r="I35" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="132"/>
-      <c r="K35" s="129" t="s">
+      <c r="J35" s="134"/>
+      <c r="K35" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="130"/>
-    </row>
-    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="132"/>
+    </row>
+    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="35" t="s">
         <v>1</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>27</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="33" t="s">
         <v>28</v>
       </c>
@@ -5179,24 +5185,24 @@
         <v>4</v>
       </c>
       <c r="W38" s="70"/>
-      <c r="X38" s="129" t="s">
+      <c r="X38" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Y38" s="130"/>
-      <c r="Z38" s="129" t="s">
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="129" t="s">
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="129" t="s">
+      <c r="AC38" s="132"/>
+      <c r="AD38" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="AE38" s="130"/>
-    </row>
-    <row r="39" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE38" s="132"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
         <v>29</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
         <v>30</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>0.50721833333333322</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
         <v>31</v>
       </c>
@@ -5459,7 +5465,7 @@
         <v>1.2110433333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>13</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>3.4771766666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W43" s="73" t="s">
         <v>43</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>5.2227066666666797</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W44" s="74" t="s">
         <v>44</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>3.6919933333333326</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G45" s="72" t="s">
         <v>44</v>
       </c>
@@ -5616,24 +5622,24 @@
       <c r="B46" s="51"/>
       <c r="C46" s="52"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="133" t="s">
+      <c r="E46" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="134"/>
-      <c r="G46" s="131" t="s">
+      <c r="F46" s="130"/>
+      <c r="G46" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="132"/>
-      <c r="I46" s="131" t="s">
+      <c r="H46" s="134"/>
+      <c r="I46" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="132"/>
-      <c r="K46" s="129" t="s">
+      <c r="J46" s="134"/>
+      <c r="K46" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="L46" s="130"/>
-    </row>
-    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="132"/>
+    </row>
+    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="35" t="s">
         <v>1</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
         <v>33</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
         <v>34</v>
       </c>
@@ -5816,7 +5822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="33" t="s">
         <v>35</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="33" t="s">
         <v>36</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="34" t="s">
         <v>37</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>13</v>
       </c>
@@ -6059,357 +6065,351 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:21" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:21" s="60" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K46:L46"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="G2:H2"/>
@@ -6418,11 +6418,17 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E46:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6435,18 +6441,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6454,7 +6460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6462,7 +6468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>3</v>
       </c>
@@ -6470,7 +6476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>4</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>5</v>
       </c>
@@ -6497,14 +6503,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="8.88671875" style="60"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="60"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -6524,23 +6530,23 @@
       <c r="P2" s="60"/>
       <c r="Q2" s="60"/>
     </row>
-    <row r="3" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="131" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="132"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="120"/>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
@@ -6551,7 +6557,7 @@
       <c r="P3" s="60"/>
       <c r="Q3" s="60"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="50" t="s">
         <v>1</v>
       </c>
@@ -6584,7 +6590,7 @@
       <c r="P4" s="112"/>
       <c r="Q4" s="113"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="118" t="s">
         <v>66</v>
       </c>
@@ -6613,7 +6619,7 @@
       <c r="P5" s="114"/>
       <c r="Q5" s="114"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -6642,7 +6648,7 @@
       <c r="P6" s="115"/>
       <c r="Q6" s="115"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -6671,7 +6677,7 @@
       <c r="P7" s="115"/>
       <c r="Q7" s="115"/>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
@@ -6707,7 +6713,7 @@
       <c r="P8" s="117"/>
       <c r="Q8" s="117"/>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -6726,7 +6732,7 @@
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C10" s="60"/>
       <c r="K10" s="126"/>
       <c r="L10" s="126"/>
@@ -6734,7 +6740,7 @@
       <c r="N10" s="126"/>
       <c r="O10" s="126"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C11" s="60"/>
       <c r="K11" s="126"/>
       <c r="L11" s="126"/>
@@ -6742,7 +6748,7 @@
       <c r="N11" s="126"/>
       <c r="O11" s="126"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -6754,26 +6760,26 @@
       <c r="H12" s="60"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="131" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="120"/>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="132"/>
+      <c r="H13" s="134"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="50" t="s">
         <v>1</v>
       </c>
@@ -6798,7 +6804,7 @@
       </c>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="118" t="s">
         <v>71</v>
       </c>
@@ -6819,7 +6825,7 @@
       </c>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -6840,7 +6846,7 @@
       </c>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>11.1409</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>9.2353499999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="61"/>
       <c r="B19" s="63"/>
       <c r="C19" s="61"/>
@@ -6897,7 +6903,7 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -6907,7 +6913,7 @@
       <c r="G20" s="119"/>
       <c r="H20" s="119"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="63"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -6917,7 +6923,7 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="63"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -6928,7 +6934,7 @@
       <c r="H22" s="63"/>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -6939,7 +6945,7 @@
       <c r="H23" s="63"/>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
@@ -6951,26 +6957,26 @@
       <c r="H24" s="60"/>
       <c r="K24" s="60"/>
     </row>
-    <row r="25" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="131" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="132"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="120"/>
-      <c r="G25" s="131" t="s">
+      <c r="G25" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="132"/>
+      <c r="H25" s="134"/>
       <c r="K25" s="60"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="50" t="s">
         <v>1</v>
       </c>
@@ -6995,7 +7001,7 @@
       </c>
       <c r="K26" s="60"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="118" t="s">
         <v>76</v>
       </c>
@@ -7016,7 +7022,7 @@
       </c>
       <c r="K27" s="60"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>20.622599999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>59.129100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>13</v>
       </c>
@@ -7083,7 +7089,7 @@
         <v>30.935233333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="61"/>
       <c r="B31" s="63"/>
       <c r="C31" s="61"/>
@@ -7093,7 +7099,7 @@
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
@@ -7103,7 +7109,7 @@
       <c r="G32" s="119"/>
       <c r="H32" s="119"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
@@ -7113,7 +7119,7 @@
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
@@ -7123,7 +7129,7 @@
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
@@ -7134,25 +7140,25 @@
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
     </row>
-    <row r="36" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="131" t="s">
+      <c r="C36" s="130"/>
+      <c r="D36" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="132"/>
+      <c r="E36" s="134"/>
       <c r="F36" s="120"/>
-      <c r="G36" s="131" t="s">
+      <c r="G36" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="132"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="134"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="50" t="s">
         <v>1</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="118" t="s">
         <v>79</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>680.61500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>466.65699999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>13.007</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>13</v>
       </c>
@@ -7263,7 +7269,7 @@
         <v>386.75966666666665</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="61"/>
       <c r="B42" s="63"/>
       <c r="C42" s="61"/>
@@ -7273,7 +7279,7 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="68"/>
       <c r="C43" s="68"/>
@@ -7283,7 +7289,7 @@
       <c r="G43" s="119"/>
       <c r="H43" s="119"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
@@ -7293,7 +7299,7 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
@@ -7303,7 +7309,7 @@
       <c r="G45" s="63"/>
       <c r="H45" s="63"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
@@ -7313,7 +7319,7 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -7323,7 +7329,7 @@
       <c r="G47" s="63"/>
       <c r="H47" s="63"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
@@ -7333,7 +7339,7 @@
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
@@ -7343,7 +7349,7 @@
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
@@ -7353,7 +7359,7 @@
       <c r="G50" s="63"/>
       <c r="H50" s="63"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -7363,7 +7369,7 @@
       <c r="G51" s="63"/>
       <c r="H51" s="63"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="70"/>
       <c r="C67" s="127" t="s">
         <v>80</v>
@@ -7375,7 +7381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="78" t="s">
         <v>64</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>3.3997199999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="78" t="s">
         <v>69</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>9.2353499999999986</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="78" t="s">
         <v>75</v>
       </c>
@@ -7417,7 +7423,7 @@
         <v>30.935233333333333</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="79" t="s">
         <v>78</v>
       </c>
@@ -7433,6 +7439,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:H36"/>
@@ -7442,11 +7453,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
